--- a/HD.xlsx
+++ b/HD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C1AA68-46AC-4EED-8299-80EC6C90BA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDB4678-52CB-4BEE-8F35-6FB6D075F9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40380" yWindow="2310" windowWidth="28230" windowHeight="17955" activeTab="1" xr2:uid="{2DDF7688-2E02-4661-90C9-5FA010AE5522}"/>
+    <workbookView xWindow="37000" yWindow="4170" windowWidth="32770" windowHeight="15380" xr2:uid="{2DDF7688-2E02-4661-90C9-5FA010AE5522}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Price</t>
   </si>
@@ -157,13 +157,16 @@
   </si>
   <si>
     <t>FY20</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -174,6 +177,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -195,8 +205,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -221,10 +232,11 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,76 +573,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E5EC1E-7DCA-45DA-A36A-6616F35DDB55}">
   <dimension ref="K2:M8"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>397.5</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>991.61418600000002</v>
+        <v>994.92798500000004</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>394166.638935</v>
-      </c>
-    </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+        <v>347229.86676499998</v>
+      </c>
+    </row>
+    <row r="5" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>4264</v>
+        <v>1369</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <f>42060+763+8</f>
-        <v>42831</v>
+        <f>38+47343+4885</f>
+        <v>52266</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>432733.638935</v>
-      </c>
-    </row>
-    <row r="8" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="L8">
+        <v>398126.86676499998</v>
+      </c>
+    </row>
+    <row r="8" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
         <f>+L7/24000</f>
-        <v>18.030568288958332</v>
+        <v>16.588619448541667</v>
       </c>
     </row>
   </sheetData>
@@ -642,26 +654,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28003C5-CD51-4AE7-8A66-A634D014CF60}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P20" sqref="P20:T20"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="9.140625" style="2"/>
+    <col min="3" max="4" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="4">
@@ -689,7 +701,7 @@
         <v>45410</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -742,7 +754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
@@ -788,7 +800,7 @@
         <v>152669</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
@@ -829,12 +841,12 @@
       <c r="R4" s="3">
         <v>104625</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="3">
         <f>SUM(G4:J4)</f>
         <v>101709</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
@@ -891,7 +903,7 @@
         <v>50960</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
@@ -932,12 +944,12 @@
       <c r="R6" s="3">
         <v>26284</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="3">
         <f>SUM(G6:J6)</f>
         <v>25598</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>25362</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1043,12 +1055,12 @@
       <c r="R8" s="3">
         <v>-1300</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="3">
         <f>SUM(G8:J8)</f>
         <v>-1765</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>23597</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1146,12 +1158,12 @@
       <c r="R10" s="3">
         <v>5372</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="3">
         <f>SUM(G10:J10)</f>
         <v>4781</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1208,7 +1220,7 @@
         <v>18816</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -1261,7 +1273,7 @@
         <v>18.773759042155152</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1307,7 +1319,7 @@
         <v>1002.25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1327,25 +1339,25 @@
         <f>+K3/G3-1</f>
         <v>-2.2519258125989761E-2</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="10">
         <f>+Q3/P3-1</f>
         <v>0.14417530845507542</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="10">
         <f t="shared" ref="R15:S15" si="7">+R3/Q3-1</f>
         <v>4.1321275230389531E-2</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="10">
         <f t="shared" si="7"/>
         <v>-3.0075665648049865E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" ref="D16:K16" si="8">+D5/D3</f>
+        <f t="shared" ref="D16:J16" si="8">+D5/D3</f>
         <v>0.33072250639386191</v>
       </c>
       <c r="E16" s="7">
@@ -1393,7 +1405,7 @@
         <v>0.33379402498215094</v>
       </c>
     </row>
-    <row r="18" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1447,7 +1459,7 @@
         <v>21172</v>
       </c>
     </row>
-    <row r="19" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1501,7 +1513,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="20" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
@@ -1527,7 +1539,7 @@
         <v>5799</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" ref="H20:K20" si="10">+I18-I19</f>
+        <f t="shared" ref="I20:K20" si="10">+I18-I19</f>
         <v>3563</v>
       </c>
       <c r="J20" s="5">
@@ -1562,7 +1574,7 @@
         <v>17946</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
@@ -1589,6 +1601,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AD3A22C8-1FC7-4D86-85FB-248C5BE6ECB7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>